--- a/帕鲁个体数据.xlsx
+++ b/帕鲁个体数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 code\palworld_breed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA570AF-0E17-46F0-9682-AF38525C550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C38A4FE-EC79-4EE8-8CE2-CDCEBF44FD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -553,6 +553,42 @@
   <si>
     <t>冥凯蝎</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電棘鼠</t>
+  </si>
+  <si>
+    <t>叶泥泥(特殊)</t>
+  </si>
+  <si>
+    <t>叶泥泥</t>
+  </si>
+  <si>
+    <t>鲁米儿</t>
+  </si>
+  <si>
+    <t>炸蛋鸟</t>
+  </si>
+  <si>
+    <t>荊棘魔仙</t>
+  </si>
+  <si>
+    <t>祇岳鹿</t>
+  </si>
+  <si>
+    <t>女皇蜂</t>
+  </si>
+  <si>
+    <t>苍焰狼</t>
+  </si>
+  <si>
+    <t>滑水蛇</t>
+  </si>
+  <si>
+    <t>铠格力斯</t>
+  </si>
+  <si>
+    <t>冥铠蝎</t>
   </si>
 </sst>
 </file>
@@ -980,15 +1016,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1021,8 +1057,24 @@
       <c r="E2" s="6">
         <v>1470</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>14</v>
+      </c>
+      <c r="J2" t="b">
+        <f>B2=G2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1038,8 +1090,24 @@
       <c r="E3" s="9">
         <v>1460</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>13</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J66" si="0">B3=G3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1055,8 +1123,24 @@
       <c r="E4" s="6">
         <v>1500</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>13</v>
+      </c>
+      <c r="J4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1072,8 +1156,24 @@
       <c r="E5" s="9">
         <v>1430</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>13</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1089,8 +1189,24 @@
       <c r="E6" s="6">
         <v>1400</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>18</v>
+      </c>
+      <c r="J6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1106,8 +1222,24 @@
       <c r="E7" s="9">
         <v>1330</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>13</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1123,8 +1255,24 @@
       <c r="E8" s="6">
         <v>1410</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>17</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1140,8 +1288,24 @@
       <c r="E9" s="9">
         <v>1250</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="3">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>13</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1157,8 +1321,24 @@
       <c r="E10" s="6">
         <v>1155</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>13</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1174,8 +1354,24 @@
       <c r="E11" s="9">
         <v>1350</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1191,8 +1387,24 @@
       <c r="E12" s="6">
         <v>520</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="3">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3">
+        <v>22</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1208,25 +1420,39 @@
       <c r="E13" s="9">
         <v>1370</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="3">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>13</v>
+      </c>
+      <c r="J13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="3">
-        <v>999</v>
-      </c>
-      <c r="D14" s="3">
-        <v>999</v>
-      </c>
       <c r="E14" s="6">
         <v>1360</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1242,9 +1468,24 @@
       <c r="E15" s="9">
         <v>1240</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="3">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>14</v>
+      </c>
+      <c r="J15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>131</v>
       </c>
@@ -1260,8 +1501,24 @@
       <c r="E16" s="6">
         <v>1240</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="3">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>14</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -1277,8 +1534,24 @@
       <c r="E17" s="9">
         <v>1450</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -1294,8 +1567,24 @@
       <c r="E18" s="6">
         <v>1390</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>14</v>
+      </c>
+      <c r="J18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -1311,8 +1600,24 @@
       <c r="E19" s="9">
         <v>1490</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="3">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>13</v>
+      </c>
+      <c r="J19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -1328,8 +1633,24 @@
       <c r="E20" s="6">
         <v>1380</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="3">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>14</v>
+      </c>
+      <c r="J20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -1345,8 +1666,24 @@
       <c r="E21" s="9">
         <v>1455</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="3">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>14</v>
+      </c>
+      <c r="J21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -1362,8 +1699,24 @@
       <c r="E22" s="6">
         <v>1230</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="3">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>15</v>
+      </c>
+      <c r="J22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -1379,8 +1732,24 @@
       <c r="E23" s="9">
         <v>1130</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="3">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>13</v>
+      </c>
+      <c r="J23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -1396,8 +1765,24 @@
       <c r="E24" s="6">
         <v>1180</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="3">
+        <v>21</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>19</v>
+      </c>
+      <c r="J24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -1413,8 +1798,24 @@
       <c r="E25" s="9">
         <v>1220</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="3">
+        <v>22</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="I25" s="3">
+        <v>40</v>
+      </c>
+      <c r="J25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -1430,8 +1831,24 @@
       <c r="E26" s="6">
         <v>1290</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="3">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>13</v>
+      </c>
+      <c r="J26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -1439,16 +1856,32 @@
         <v>27</v>
       </c>
       <c r="C27" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E27" s="9">
         <v>1480</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="3">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>15</v>
+      </c>
+      <c r="J27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>133</v>
       </c>
@@ -1456,16 +1889,32 @@
         <v>26</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E28" s="6">
         <v>1440</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="3">
+        <v>30</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45</v>
+      </c>
+      <c r="J28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>25</v>
       </c>
@@ -1481,8 +1930,24 @@
       <c r="E29" s="9">
         <v>870</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="3">
+        <v>25</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="3">
+        <v>13</v>
+      </c>
+      <c r="J29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -1498,8 +1963,24 @@
       <c r="E30" s="6">
         <v>1060</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="3">
+        <v>26</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3">
+        <v>15</v>
+      </c>
+      <c r="J30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>27</v>
       </c>
@@ -1515,8 +1996,24 @@
       <c r="E31" s="9">
         <v>1340</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="3">
+        <v>27</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="3">
+        <v>11</v>
+      </c>
+      <c r="I31" s="3">
+        <v>40</v>
+      </c>
+      <c r="J31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -1532,8 +2029,24 @@
       <c r="E32" s="6">
         <v>1280</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="3">
+        <v>28</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="3">
+        <v>15</v>
+      </c>
+      <c r="I32" s="3">
+        <v>29</v>
+      </c>
+      <c r="J32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>29</v>
       </c>
@@ -1549,8 +2062,24 @@
       <c r="E33" s="9">
         <v>910</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="3">
+        <v>29</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="3">
+        <v>10</v>
+      </c>
+      <c r="I33" s="3">
+        <v>19</v>
+      </c>
+      <c r="J33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>30</v>
       </c>
@@ -1566,8 +2095,24 @@
       <c r="E34" s="6">
         <v>1320</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="3">
+        <v>30</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="3">
+        <v>16</v>
+      </c>
+      <c r="I34" s="3">
+        <v>29</v>
+      </c>
+      <c r="J34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>31</v>
       </c>
@@ -1575,16 +2120,32 @@
         <v>32</v>
       </c>
       <c r="C35" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D35" s="3">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E35" s="9">
         <v>1090</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="3">
+        <v>31</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="3">
+        <v>20</v>
+      </c>
+      <c r="I35" s="3">
+        <v>29</v>
+      </c>
+      <c r="J35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>135</v>
       </c>
@@ -1592,16 +2153,32 @@
         <v>31</v>
       </c>
       <c r="C36" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D36" s="3">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E36" s="6">
         <v>1100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="3">
+        <v>31</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="3">
+        <v>25</v>
+      </c>
+      <c r="I36" s="3">
+        <v>38</v>
+      </c>
+      <c r="J36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>32</v>
       </c>
@@ -1617,8 +2194,24 @@
       <c r="E37" s="9">
         <v>1420</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="3">
+        <v>32</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="3">
+        <v>14</v>
+      </c>
+      <c r="I37" s="3">
+        <v>40</v>
+      </c>
+      <c r="J37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>136</v>
       </c>
@@ -1634,8 +2227,24 @@
       <c r="E38" s="6">
         <v>1422</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="3">
+        <v>32</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="3">
+        <v>33</v>
+      </c>
+      <c r="I38" s="3">
+        <v>35</v>
+      </c>
+      <c r="J38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>33</v>
       </c>
@@ -1643,16 +2252,32 @@
         <v>36</v>
       </c>
       <c r="C39" s="3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D39" s="3">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E39" s="9">
         <v>430</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="3">
+        <v>33</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="3">
+        <v>25</v>
+      </c>
+      <c r="I39" s="3">
+        <v>29</v>
+      </c>
+      <c r="J39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>137</v>
       </c>
@@ -1660,16 +2285,32 @@
         <v>35</v>
       </c>
       <c r="C40" s="3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D40" s="3">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E40" s="6">
         <v>390</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="3">
+        <v>33</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="3">
+        <v>31</v>
+      </c>
+      <c r="I40" s="3">
+        <v>37</v>
+      </c>
+      <c r="J40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>34</v>
       </c>
@@ -1685,8 +2326,24 @@
       <c r="E41" s="9">
         <v>1190</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="3">
+        <v>34</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="3">
+        <v>14</v>
+      </c>
+      <c r="I41" s="3">
+        <v>19</v>
+      </c>
+      <c r="J41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>35</v>
       </c>
@@ -1702,8 +2359,24 @@
       <c r="E42" s="6">
         <v>930</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="3">
+        <v>35</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6</v>
+      </c>
+      <c r="I42" s="3">
+        <v>41</v>
+      </c>
+      <c r="J42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>36</v>
       </c>
@@ -1719,8 +2392,24 @@
       <c r="E43" s="9">
         <v>890</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="3">
+        <v>36</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>17</v>
+      </c>
+      <c r="J43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>37</v>
       </c>
@@ -1728,16 +2417,32 @@
         <v>40</v>
       </c>
       <c r="C44" s="3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D44" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E44" s="6">
         <v>920</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="3">
+        <v>37</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6</v>
+      </c>
+      <c r="I44" s="3">
+        <v>13</v>
+      </c>
+      <c r="J44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>138</v>
       </c>
@@ -1745,16 +2450,32 @@
         <v>139</v>
       </c>
       <c r="C45" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D45" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E45" s="9">
         <v>900</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="3">
+        <v>37</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="3">
+        <v>18</v>
+      </c>
+      <c r="I45" s="3">
+        <v>22</v>
+      </c>
+      <c r="J45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>38</v>
       </c>
@@ -1770,8 +2491,24 @@
       <c r="E46" s="6">
         <v>420</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="3">
+        <v>38</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="3">
+        <v>9</v>
+      </c>
+      <c r="I46" s="3">
+        <v>40</v>
+      </c>
+      <c r="J46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -1787,8 +2524,24 @@
       <c r="E47" s="9">
         <v>1310</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="3">
+        <v>39</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="3">
+        <v>19</v>
+      </c>
+      <c r="J47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>40</v>
       </c>
@@ -1804,8 +2557,24 @@
       <c r="E48" s="6">
         <v>590</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="3">
+        <v>40</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="3">
+        <v>29</v>
+      </c>
+      <c r="I48" s="3">
+        <v>38</v>
+      </c>
+      <c r="J48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>140</v>
       </c>
@@ -1821,8 +2590,24 @@
       <c r="E49" s="9">
         <v>580</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="3">
+        <v>40</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="3">
+        <v>40</v>
+      </c>
+      <c r="I49" s="3">
+        <v>45</v>
+      </c>
+      <c r="J49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -1838,8 +2623,24 @@
       <c r="E50" s="6">
         <v>490</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="3">
+        <v>41</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="3">
+        <v>18</v>
+      </c>
+      <c r="I50" s="3">
+        <v>29</v>
+      </c>
+      <c r="J50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>42</v>
       </c>
@@ -1855,8 +2656,24 @@
       <c r="E51" s="9">
         <v>790</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="3">
+        <v>42</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="3">
+        <v>9</v>
+      </c>
+      <c r="I51" s="3">
+        <v>39</v>
+      </c>
+      <c r="J51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -1872,8 +2689,24 @@
       <c r="E52" s="6">
         <v>895</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="3">
+        <v>43</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="3">
+        <v>14</v>
+      </c>
+      <c r="I52" s="3">
+        <v>38</v>
+      </c>
+      <c r="J52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>44</v>
       </c>
@@ -1889,8 +2722,24 @@
       <c r="E53" s="9">
         <v>1080</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="3">
+        <v>44</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="3">
+        <v>12</v>
+      </c>
+      <c r="I53" s="3">
+        <v>40</v>
+      </c>
+      <c r="J53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -1906,8 +2755,24 @@
       <c r="E54" s="6">
         <v>1120</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="3">
+        <v>45</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="3">
+        <v>29</v>
+      </c>
+      <c r="I54" s="3">
+        <v>40</v>
+      </c>
+      <c r="J54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>141</v>
       </c>
@@ -1923,8 +2788,24 @@
       <c r="E55" s="9">
         <v>1140</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="3">
+        <v>45</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="3">
+        <v>15</v>
+      </c>
+      <c r="I55" s="3">
+        <v>38</v>
+      </c>
+      <c r="J55" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>46</v>
       </c>
@@ -1940,8 +2821,24 @@
       <c r="E56" s="6">
         <v>950</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="3">
+        <v>46</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="3">
+        <v>12</v>
+      </c>
+      <c r="I56" s="3">
+        <v>29</v>
+      </c>
+      <c r="J56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>47</v>
       </c>
@@ -1957,8 +2854,24 @@
       <c r="E57" s="9">
         <v>1030</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="3">
+        <v>47</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" s="3">
+        <v>9</v>
+      </c>
+      <c r="I57" s="3">
+        <v>29</v>
+      </c>
+      <c r="J57" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>48</v>
       </c>
@@ -1966,16 +2879,32 @@
         <v>54</v>
       </c>
       <c r="C58" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D58" s="3">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E58" s="6">
         <v>1020</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="3">
+        <v>48</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="3">
+        <v>22</v>
+      </c>
+      <c r="I58" s="3">
+        <v>29</v>
+      </c>
+      <c r="J58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>142</v>
       </c>
@@ -1983,16 +2912,32 @@
         <v>53</v>
       </c>
       <c r="C59" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D59" s="3">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E59" s="9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="3">
+        <v>48</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="3">
+        <v>30</v>
+      </c>
+      <c r="I59" s="3">
+        <v>40</v>
+      </c>
+      <c r="J59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>49</v>
       </c>
@@ -2008,8 +2953,24 @@
       <c r="E60" s="6">
         <v>1040</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="3">
+        <v>49</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="3">
+        <v>22</v>
+      </c>
+      <c r="I60" s="3">
+        <v>29</v>
+      </c>
+      <c r="J60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>50</v>
       </c>
@@ -2025,8 +2986,24 @@
       <c r="E61" s="9">
         <v>1070</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="3">
+        <v>50</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="3">
+        <v>20</v>
+      </c>
+      <c r="I61" s="3">
+        <v>25</v>
+      </c>
+      <c r="J61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>51</v>
       </c>
@@ -2042,8 +3019,24 @@
       <c r="E62" s="6">
         <v>330</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="3">
+        <v>51</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H62" s="3">
+        <v>28</v>
+      </c>
+      <c r="I62" s="3">
+        <v>31</v>
+      </c>
+      <c r="J62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>52</v>
       </c>
@@ -2059,8 +3052,24 @@
       <c r="E63" s="9">
         <v>510</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="3">
+        <v>52</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="3">
+        <v>17</v>
+      </c>
+      <c r="I63" s="3">
+        <v>29</v>
+      </c>
+      <c r="J63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>53</v>
       </c>
@@ -2076,8 +3085,24 @@
       <c r="E64" s="6">
         <v>1300</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="3">
+        <v>53</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="3">
+        <v>7</v>
+      </c>
+      <c r="I64" s="3">
+        <v>27</v>
+      </c>
+      <c r="J64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>54</v>
       </c>
@@ -2093,8 +3118,24 @@
       <c r="E65" s="9">
         <v>410</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="3">
+        <v>54</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H65" s="3">
+        <v>11</v>
+      </c>
+      <c r="I65" s="3">
+        <v>32</v>
+      </c>
+      <c r="J65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>55</v>
       </c>
@@ -2110,8 +3151,24 @@
       <c r="E66" s="6">
         <v>800</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="3">
+        <v>55</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66" s="3">
+        <v>11</v>
+      </c>
+      <c r="I66" s="3">
+        <v>45</v>
+      </c>
+      <c r="J66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>56</v>
       </c>
@@ -2127,8 +3184,24 @@
       <c r="E67" s="9">
         <v>680</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="3">
+        <v>56</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67" s="3">
+        <v>7</v>
+      </c>
+      <c r="I67" s="3">
+        <v>31</v>
+      </c>
+      <c r="J67" t="b">
+        <f t="shared" ref="J67:J130" si="1">B67=G67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>57</v>
       </c>
@@ -2144,8 +3217,24 @@
       <c r="E68" s="6">
         <v>760</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="3">
+        <v>57</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" s="3">
+        <v>28</v>
+      </c>
+      <c r="I68" s="3">
+        <v>32</v>
+      </c>
+      <c r="J68" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>58</v>
       </c>
@@ -2161,8 +3250,24 @@
       <c r="E69" s="9">
         <v>360</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="3">
+        <v>58</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69" s="3">
+        <v>29</v>
+      </c>
+      <c r="I69" s="3">
+        <v>38</v>
+      </c>
+      <c r="J69" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>143</v>
       </c>
@@ -2178,8 +3283,24 @@
       <c r="E70" s="6">
         <v>240</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="3">
+        <v>58</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" s="3">
+        <v>32</v>
+      </c>
+      <c r="I70" s="3">
+        <v>38</v>
+      </c>
+      <c r="J70" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>59</v>
       </c>
@@ -2195,8 +3316,24 @@
       <c r="E71" s="9">
         <v>880</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="3">
+        <v>59</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H71" s="3">
+        <v>25</v>
+      </c>
+      <c r="I71" s="3">
+        <v>45</v>
+      </c>
+      <c r="J71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>60</v>
       </c>
@@ -2212,8 +3349,24 @@
       <c r="E72" s="6">
         <v>740</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="3">
+        <v>60</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" s="3">
+        <v>30</v>
+      </c>
+      <c r="I72" s="3">
+        <v>40</v>
+      </c>
+      <c r="J72" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>61</v>
       </c>
@@ -2229,8 +3382,24 @@
       <c r="E73" s="9">
         <v>830</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="3">
+        <v>61</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H73" s="3">
+        <v>28</v>
+      </c>
+      <c r="I73" s="3">
+        <v>32</v>
+      </c>
+      <c r="J73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>62</v>
       </c>
@@ -2246,8 +3415,24 @@
       <c r="E74" s="6">
         <v>1210</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="3">
+        <v>62</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H74" s="3">
+        <v>29</v>
+      </c>
+      <c r="I74" s="3">
+        <v>40</v>
+      </c>
+      <c r="J74" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>63</v>
       </c>
@@ -2263,8 +3448,24 @@
       <c r="E75" s="9">
         <v>1110</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="3">
+        <v>63</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="3">
+        <v>32</v>
+      </c>
+      <c r="I75" s="3">
+        <v>45</v>
+      </c>
+      <c r="J75" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>64</v>
       </c>
@@ -2280,8 +3481,24 @@
       <c r="E76" s="6">
         <v>820</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="3">
+        <v>64</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76" s="3">
+        <v>10</v>
+      </c>
+      <c r="I76" s="3">
+        <v>18</v>
+      </c>
+      <c r="J76" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>144</v>
       </c>
@@ -2297,8 +3514,24 @@
       <c r="E77" s="9">
         <v>810</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="3">
+        <v>64</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H77" s="3">
+        <v>35</v>
+      </c>
+      <c r="I77" s="3">
+        <v>47</v>
+      </c>
+      <c r="J77" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>65</v>
       </c>
@@ -2306,16 +3539,32 @@
         <v>145</v>
       </c>
       <c r="C78" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E78" s="6">
         <v>560</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="3">
+        <v>65</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H78" s="3">
+        <v>14</v>
+      </c>
+      <c r="I78" s="3">
+        <v>26</v>
+      </c>
+      <c r="J78" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>146</v>
       </c>
@@ -2323,16 +3572,32 @@
         <v>71</v>
       </c>
       <c r="C79" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D79" s="3">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E79" s="9">
         <v>550</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="3">
+        <v>65</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" s="3">
+        <v>30</v>
+      </c>
+      <c r="I79" s="3">
+        <v>40</v>
+      </c>
+      <c r="J79" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>66</v>
       </c>
@@ -2348,8 +3613,24 @@
       <c r="E80" s="6">
         <v>1150</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="3">
+        <v>66</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" s="3">
+        <v>36</v>
+      </c>
+      <c r="I80" s="3">
+        <v>45</v>
+      </c>
+      <c r="J80" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>67</v>
       </c>
@@ -2365,8 +3646,24 @@
       <c r="E81" s="9">
         <v>850</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="3">
+        <v>67</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81" s="3">
+        <v>17</v>
+      </c>
+      <c r="I81" s="3">
+        <v>40</v>
+      </c>
+      <c r="J81" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>68</v>
       </c>
@@ -2382,8 +3679,24 @@
       <c r="E82" s="6">
         <v>750</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="3">
+        <v>68</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" s="3">
+        <v>5</v>
+      </c>
+      <c r="I82" s="3">
+        <v>45</v>
+      </c>
+      <c r="J82" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>69</v>
       </c>
@@ -2399,8 +3712,24 @@
       <c r="E83" s="9">
         <v>940</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="3">
+        <v>69</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" s="3">
+        <v>18</v>
+      </c>
+      <c r="I83" s="3">
+        <v>40</v>
+      </c>
+      <c r="J83" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>70</v>
       </c>
@@ -2416,8 +3745,24 @@
       <c r="E84" s="6">
         <v>1405</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="3">
+        <v>70</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" s="3">
+        <v>9</v>
+      </c>
+      <c r="I84" s="3">
+        <v>38</v>
+      </c>
+      <c r="J84" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>71</v>
       </c>
@@ -2433,8 +3778,24 @@
       <c r="E85" s="9">
         <v>660</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="3">
+        <v>71</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" s="3">
+        <v>10</v>
+      </c>
+      <c r="I85" s="3">
+        <v>38</v>
+      </c>
+      <c r="J85" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>147</v>
       </c>
@@ -2450,8 +3811,24 @@
       <c r="E86" s="6">
         <v>620</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="3">
+        <v>71</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H86" s="3">
+        <v>36</v>
+      </c>
+      <c r="I86" s="3">
+        <v>45</v>
+      </c>
+      <c r="J86" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>72</v>
       </c>
@@ -2467,8 +3844,24 @@
       <c r="E87" s="9">
         <v>640</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="3">
+        <v>72</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" s="3">
+        <v>23</v>
+      </c>
+      <c r="I87" s="3">
+        <v>45</v>
+      </c>
+      <c r="J87" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>73</v>
       </c>
@@ -2484,8 +3877,24 @@
       <c r="E88" s="6">
         <v>220</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="3">
+        <v>73</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" s="3">
+        <v>29</v>
+      </c>
+      <c r="I88" s="3">
+        <v>40</v>
+      </c>
+      <c r="J88" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>74</v>
       </c>
@@ -2501,8 +3910,24 @@
       <c r="E89" s="9">
         <v>380</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="3">
+        <v>74</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" s="3">
+        <v>34</v>
+      </c>
+      <c r="I89" s="3">
+        <v>38</v>
+      </c>
+      <c r="J89" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>75</v>
       </c>
@@ -2518,8 +3943,24 @@
       <c r="E90" s="6">
         <v>700</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="3">
+        <v>75</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H90" s="3">
+        <v>20</v>
+      </c>
+      <c r="I90" s="3">
+        <v>29</v>
+      </c>
+      <c r="J90" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>76</v>
       </c>
@@ -2535,8 +3976,24 @@
       <c r="E91" s="9">
         <v>1160</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="3">
+        <v>76</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H91" s="3">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3">
+        <v>38</v>
+      </c>
+      <c r="J91" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>77</v>
       </c>
@@ -2552,8 +4009,24 @@
       <c r="E92" s="6">
         <v>990</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="3">
+        <v>77</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" s="3">
+        <v>35</v>
+      </c>
+      <c r="I92" s="3">
+        <v>45</v>
+      </c>
+      <c r="J92" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>78</v>
       </c>
@@ -2569,8 +4042,24 @@
       <c r="E93" s="9">
         <v>1050</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="3">
+        <v>78</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H93" s="3">
+        <v>18</v>
+      </c>
+      <c r="I93" s="3">
+        <v>38</v>
+      </c>
+      <c r="J93" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>79</v>
       </c>
@@ -2586,8 +4075,24 @@
       <c r="E94" s="6">
         <v>450</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="3">
+        <v>79</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H94" s="3">
+        <v>36</v>
+      </c>
+      <c r="I94" s="3">
+        <v>45</v>
+      </c>
+      <c r="J94" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>80</v>
       </c>
@@ -2603,25 +4108,39 @@
       <c r="E95" s="9">
         <v>540</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="3">
+        <v>80</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H95" s="3">
+        <v>18</v>
+      </c>
+      <c r="I95" s="3">
+        <v>45</v>
+      </c>
+      <c r="J95" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C96" s="3">
-        <v>999</v>
-      </c>
-      <c r="D96" s="3">
-        <v>999</v>
-      </c>
       <c r="E96" s="6">
         <v>530</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J96" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>81</v>
       </c>
@@ -2632,13 +4151,29 @@
         <v>9</v>
       </c>
       <c r="D97" s="3">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E97" s="9">
         <v>1260</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="3">
+        <v>81</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H97" s="3">
+        <v>9</v>
+      </c>
+      <c r="I97" s="3">
+        <v>19</v>
+      </c>
+      <c r="J97" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>150</v>
       </c>
@@ -2649,13 +4184,29 @@
         <v>9</v>
       </c>
       <c r="D98" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E98" s="6">
         <v>1270</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="3">
+        <v>81</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H98" s="3">
+        <v>9</v>
+      </c>
+      <c r="I98" s="3">
+        <v>38</v>
+      </c>
+      <c r="J98" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>82</v>
       </c>
@@ -2671,8 +4222,24 @@
       <c r="E99" s="9">
         <v>500</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="3">
+        <v>82</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H99" s="3">
+        <v>17</v>
+      </c>
+      <c r="I99" s="3">
+        <v>22</v>
+      </c>
+      <c r="J99" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>83</v>
       </c>
@@ -2688,8 +4255,24 @@
       <c r="E100" s="6">
         <v>130</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="3">
+        <v>83</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H100" s="3">
+        <v>36</v>
+      </c>
+      <c r="I100" s="3">
+        <v>45</v>
+      </c>
+      <c r="J100" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>84</v>
       </c>
@@ -2705,8 +4288,24 @@
       <c r="E101" s="9">
         <v>710</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" s="3">
+        <v>84</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H101" s="3">
+        <v>34</v>
+      </c>
+      <c r="I101" s="3">
+        <v>38</v>
+      </c>
+      <c r="J101" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>151</v>
       </c>
@@ -2722,8 +4321,24 @@
       <c r="E102" s="6">
         <v>670</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="3">
+        <v>84</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H102" s="3">
+        <v>33</v>
+      </c>
+      <c r="I102" s="3">
+        <v>38</v>
+      </c>
+      <c r="J102" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>85</v>
       </c>
@@ -2739,8 +4354,24 @@
       <c r="E103" s="9">
         <v>280</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="3">
+        <v>85</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H103" s="3">
+        <v>15</v>
+      </c>
+      <c r="I103" s="3">
+        <v>20</v>
+      </c>
+      <c r="J103" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>152</v>
       </c>
@@ -2756,8 +4387,24 @@
       <c r="E104" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="3">
+        <v>85</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H104" s="3">
+        <v>31</v>
+      </c>
+      <c r="I104" s="3">
+        <v>31</v>
+      </c>
+      <c r="J104" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>86</v>
       </c>
@@ -2765,16 +4412,32 @@
         <v>97</v>
       </c>
       <c r="C105" s="3">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D105" s="3">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E105" s="9">
         <v>860</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="3">
+        <v>86</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H105" s="3">
+        <v>17</v>
+      </c>
+      <c r="I105" s="3">
+        <v>23</v>
+      </c>
+      <c r="J105" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>153</v>
       </c>
@@ -2782,16 +4445,32 @@
         <v>96</v>
       </c>
       <c r="C106" s="3">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D106" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E106" s="6">
         <v>840</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="3">
+        <v>86</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H106" s="3">
+        <v>30</v>
+      </c>
+      <c r="I106" s="3">
+        <v>30</v>
+      </c>
+      <c r="J106" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>87</v>
       </c>
@@ -2807,8 +4486,24 @@
       <c r="E107" s="9">
         <v>780</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="3">
+        <v>87</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H107" s="3">
+        <v>18</v>
+      </c>
+      <c r="I107" s="3">
+        <v>28</v>
+      </c>
+      <c r="J107" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>88</v>
       </c>
@@ -2816,16 +4511,32 @@
         <v>100</v>
       </c>
       <c r="C108" s="3">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D108" s="3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E108" s="6">
         <v>320</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="3">
+        <v>88</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H108" s="3">
+        <v>34</v>
+      </c>
+      <c r="I108" s="3">
+        <v>38</v>
+      </c>
+      <c r="J108" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>154</v>
       </c>
@@ -2833,16 +4544,32 @@
         <v>99</v>
       </c>
       <c r="C109" s="3">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D109" s="3">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E109" s="9">
         <v>230</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="3">
+        <v>88</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H109" s="3">
+        <v>42</v>
+      </c>
+      <c r="I109" s="3">
+        <v>45</v>
+      </c>
+      <c r="J109" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>89</v>
       </c>
@@ -2850,16 +4577,32 @@
         <v>102</v>
       </c>
       <c r="C110" s="3">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D110" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E110" s="6">
         <v>470</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="3">
+        <v>89</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H110" s="3">
+        <v>23</v>
+      </c>
+      <c r="I110" s="3">
+        <v>45</v>
+      </c>
+      <c r="J110" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>155</v>
       </c>
@@ -2867,16 +4610,32 @@
         <v>101</v>
       </c>
       <c r="C111" s="3">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D111" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E111" s="9">
         <v>440</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="3">
+        <v>89</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H111" s="3">
+        <v>46</v>
+      </c>
+      <c r="I111" s="3">
+        <v>46</v>
+      </c>
+      <c r="J111" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>90</v>
       </c>
@@ -2884,16 +4643,32 @@
         <v>104</v>
       </c>
       <c r="C112" s="3">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D112" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E112" s="6">
         <v>300</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="3">
+        <v>90</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H112" s="3">
+        <v>30</v>
+      </c>
+      <c r="I112" s="3">
+        <v>40</v>
+      </c>
+      <c r="J112" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>156</v>
       </c>
@@ -2901,16 +4676,32 @@
         <v>103</v>
       </c>
       <c r="C113" s="3">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D113" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E113" s="9">
         <v>290</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="3">
+        <v>90</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H113" s="3">
+        <v>41</v>
+      </c>
+      <c r="I113" s="3">
+        <v>45</v>
+      </c>
+      <c r="J113" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>91</v>
       </c>
@@ -2926,8 +4717,24 @@
       <c r="E114" s="6">
         <v>460</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="3">
+        <v>91</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H114" s="3">
+        <v>41</v>
+      </c>
+      <c r="I114" s="3">
+        <v>45</v>
+      </c>
+      <c r="J114" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>157</v>
       </c>
@@ -2943,8 +4750,24 @@
       <c r="E115" s="9">
         <v>480</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="3">
+        <v>91</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H115" s="3">
+        <v>38</v>
+      </c>
+      <c r="I115" s="3">
+        <v>45</v>
+      </c>
+      <c r="J115" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>92</v>
       </c>
@@ -2960,8 +4783,24 @@
       <c r="E116" s="6">
         <v>340</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="3">
+        <v>92</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H116" s="3">
+        <v>30</v>
+      </c>
+      <c r="I116" s="3">
+        <v>45</v>
+      </c>
+      <c r="J116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>93</v>
       </c>
@@ -2977,8 +4816,24 @@
       <c r="E117" s="9">
         <v>980</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="3">
+        <v>93</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H117" s="3">
+        <v>15</v>
+      </c>
+      <c r="I117" s="3">
+        <v>45</v>
+      </c>
+      <c r="J117" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>94</v>
       </c>
@@ -2994,8 +4849,24 @@
       <c r="E118" s="6">
         <v>1010</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="3">
+        <v>94</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H118" s="3">
+        <v>20</v>
+      </c>
+      <c r="I118" s="3">
+        <v>31</v>
+      </c>
+      <c r="J118" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>95</v>
       </c>
@@ -3011,8 +4882,24 @@
       <c r="E119" s="9">
         <v>350</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="3">
+        <v>95</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H119" s="3">
+        <v>23</v>
+      </c>
+      <c r="I119" s="3">
+        <v>45</v>
+      </c>
+      <c r="J119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>96</v>
       </c>
@@ -3028,8 +4915,24 @@
       <c r="E120" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="3">
+        <v>96</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H120" s="3">
+        <v>40</v>
+      </c>
+      <c r="I120" s="3">
+        <v>49</v>
+      </c>
+      <c r="J120" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>97</v>
       </c>
@@ -3045,8 +4948,24 @@
       <c r="E121" s="9">
         <v>190</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="3">
+        <v>97</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H121" s="3">
+        <v>24</v>
+      </c>
+      <c r="I121" s="3">
+        <v>28</v>
+      </c>
+      <c r="J121" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>98</v>
       </c>
@@ -3062,8 +4981,24 @@
       <c r="E122" s="6">
         <v>150</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" s="3">
+        <v>98</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H122" s="3">
+        <v>40</v>
+      </c>
+      <c r="I122" s="3">
+        <v>48</v>
+      </c>
+      <c r="J122" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>99</v>
       </c>
@@ -3079,8 +5014,24 @@
       <c r="E123" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="3">
+        <v>99</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H123" s="3">
+        <v>40</v>
+      </c>
+      <c r="I123" s="3">
+        <v>45</v>
+      </c>
+      <c r="J123" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>100</v>
       </c>
@@ -3096,8 +5047,24 @@
       <c r="E124" s="6">
         <v>570</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="3">
+        <v>100</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H124" s="3">
+        <v>16</v>
+      </c>
+      <c r="I124" s="3">
+        <v>47</v>
+      </c>
+      <c r="J124" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>101</v>
       </c>
@@ -3113,8 +5080,24 @@
       <c r="E125" s="9">
         <v>310</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="3">
+        <v>101</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H125" s="3">
+        <v>45</v>
+      </c>
+      <c r="I125" s="3">
+        <v>45</v>
+      </c>
+      <c r="J125" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>158</v>
       </c>
@@ -3130,8 +5113,24 @@
       <c r="E126" s="6">
         <v>315</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" s="3">
+        <v>101</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H126" s="3">
+        <v>40</v>
+      </c>
+      <c r="I126" s="3">
+        <v>45</v>
+      </c>
+      <c r="J126" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>102</v>
       </c>
@@ -3139,7 +5138,7 @@
         <v>117</v>
       </c>
       <c r="C127" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D127" s="3">
         <v>45</v>
@@ -3147,8 +5146,24 @@
       <c r="E127" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" s="3">
+        <v>102</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H127" s="3">
+        <v>42</v>
+      </c>
+      <c r="I127" s="3">
+        <v>45</v>
+      </c>
+      <c r="J127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>159</v>
       </c>
@@ -3156,7 +5171,7 @@
         <v>116</v>
       </c>
       <c r="C128" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D128" s="3">
         <v>45</v>
@@ -3164,8 +5179,24 @@
       <c r="E128" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" s="3">
+        <v>102</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H128" s="3">
+        <v>40</v>
+      </c>
+      <c r="I128" s="3">
+        <v>45</v>
+      </c>
+      <c r="J128" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>103</v>
       </c>
@@ -3181,8 +5212,24 @@
       <c r="E129" s="9">
         <v>200</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" s="3">
+        <v>103</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H129" s="3">
+        <v>18</v>
+      </c>
+      <c r="I129" s="3">
+        <v>22</v>
+      </c>
+      <c r="J129" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>104</v>
       </c>
@@ -3198,8 +5245,24 @@
       <c r="E130" s="6">
         <v>250</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="3">
+        <v>104</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H130" s="3">
+        <v>40</v>
+      </c>
+      <c r="I130" s="3">
+        <v>45</v>
+      </c>
+      <c r="J130" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -3215,8 +5278,24 @@
       <c r="E131" s="9">
         <v>210</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="3">
+        <v>104</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H131" s="3">
+        <v>49</v>
+      </c>
+      <c r="I131" s="3">
+        <v>49</v>
+      </c>
+      <c r="J131" t="b">
+        <f t="shared" ref="J131:J139" si="2">B131=G131</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>105</v>
       </c>
@@ -3232,8 +5311,24 @@
       <c r="E132" s="6">
         <v>370</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="3">
+        <v>105</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H132" s="3">
+        <v>40</v>
+      </c>
+      <c r="I132" s="3">
+        <v>45</v>
+      </c>
+      <c r="J132" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>106</v>
       </c>
@@ -3249,8 +5344,24 @@
       <c r="E133" s="9">
         <v>140</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="3">
+        <v>106</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H133" s="3">
+        <v>40</v>
+      </c>
+      <c r="I133" s="3">
+        <v>45</v>
+      </c>
+      <c r="J133" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>107</v>
       </c>
@@ -3266,8 +5377,24 @@
       <c r="E134" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="3">
+        <v>107</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H134" s="3">
+        <v>40</v>
+      </c>
+      <c r="I134" s="3">
+        <v>45</v>
+      </c>
+      <c r="J134" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>108</v>
       </c>
@@ -3283,8 +5410,24 @@
       <c r="E135" s="9">
         <v>80</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="3">
+        <v>108</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H135" s="3">
+        <v>50</v>
+      </c>
+      <c r="I135" s="3">
+        <v>50</v>
+      </c>
+      <c r="J135" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>109</v>
       </c>
@@ -3300,8 +5443,24 @@
       <c r="E136" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="3">
+        <v>109</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H136" s="3">
+        <v>50</v>
+      </c>
+      <c r="I136" s="3">
+        <v>50</v>
+      </c>
+      <c r="J136" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>110</v>
       </c>
@@ -3317,25 +5476,39 @@
       <c r="E137" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" s="3">
+        <v>110</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H137" s="3">
+        <v>50</v>
+      </c>
+      <c r="I137" s="3">
+        <v>50</v>
+      </c>
+      <c r="J137" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C138" s="3">
-        <v>999</v>
-      </c>
-      <c r="D138" s="3">
-        <v>999</v>
-      </c>
       <c r="E138" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J138" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>111</v>
       </c>
@@ -3351,8 +5524,24 @@
       <c r="E139" s="10">
         <v>90</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="F139" s="3">
+        <v>111</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H139" s="3">
+        <v>50</v>
+      </c>
+      <c r="I139" s="3">
+        <v>50</v>
+      </c>
+      <c r="J139" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
